--- a/Montly_Data.xlsx
+++ b/Montly_Data.xlsx
@@ -435,10 +435,10 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>72830</v>
+        <v>108829</v>
       </c>
       <c r="D3">
         <v>2</v>
